--- a/documents/審查意見表.xlsx
+++ b/documents/審查意見表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="審查意見" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>審查委員</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,54 +167,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已經刪減至三項目的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前無差異，已經刪除此部分減少誤解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已經刪除此部分減少誤解</t>
-  </si>
-  <si>
-    <t>已經刪減至三項目的，減少目的描述過於廣泛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已經修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由於與本研究相關的文獻實在差異太大，故無法整理出實際的研究差異，但在文內中有描述其他各研究的研究內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由於與本研究相關的文獻實在差異太大，故無法整理出實際的研究差異，另外，討論與建議已經是分別獨立於第肆章與第伍章內</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已經有描述最少五篇相關國內外的相關研究於文獻探討內</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他相關研究甚少，已盡力補強</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本系統為網路應用程式，單一流程架構，故僅只有分系統模組，並循序漸進執行，因此不另外加圖，以免誤導</t>
+    <t>頁碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p14-15,p17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經增加系統架構圖，並且依照模組順序，依序導向下一個模組，並且配合模組分析呈現。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經於討論一節中，額外詳細描述相關文獻比較與探討</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已於論文架構一節中描述本論文的結構。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已將目的的描述修飾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前不同的使用者間並無差異，因此刪除各種使用者之間的功能差異部分，以減少誤解與混亂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論與建議已經是分別獨立於第肆章與第伍章內，與其他論文的比較已於討論內補充描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文內中已有描述其他各研究的研究內容，與其他論文的比較已於討論內補充描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經刪減至四項目的，並且於討論與結論中相呼應</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經刪減至四項目的，並且將太過於廣泛的目的描述修飾與刪除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經刪減至四項目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經將各項系統評估，以及系統對於其他單張的支援度有一一描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p14-15,p17,p49-51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p49-53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p52</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,18 +592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="2" max="3" width="60.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -584,8 +614,11 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -593,37 +626,49 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -631,28 +676,37 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -660,10 +714,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -671,28 +728,37 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -700,25 +766,34 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
